--- a/info-2025.xlsx
+++ b/info-2025.xlsx
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -461,6 +461,25 @@
         <v>4101.2</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3726</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4880</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D4" s="1">
+        <f>(B4-A4) * C4</f>
+        <v>923.2</v>
+      </c>
+      <c r="E4" s="1">
+        <f>B4-((B4-A4) * (1-C4))</f>
+        <v>4649.2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/info-2025.xlsx
+++ b/info-2025.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="9810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="9810" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="trailing stop 정리" sheetId="1" r:id="rId1"/>
+    <sheet name="비중" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>감시가격</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +45,74 @@
   </si>
   <si>
     <t>수익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 투입금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가용 현금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투자한 현금 비중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적정한 현금 비중은….???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금은 어떤 장세인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 정세 불안정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 원화 환율 약세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3) 미국의 보편관세 실행 전 -&gt; 이미 가격에 포함돼있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결론: 관망해야할 때 인가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -85,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -93,13 +163,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -110,6 +195,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -394,8 +494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -466,18 +566,18 @@
         <v>3726</v>
       </c>
       <c r="B4" s="1">
-        <v>4880</v>
+        <v>4895</v>
       </c>
       <c r="C4" s="2">
         <v>0.8</v>
       </c>
       <c r="D4" s="1">
         <f>(B4-A4) * C4</f>
-        <v>923.2</v>
+        <v>935.2</v>
       </c>
       <c r="E4" s="1">
         <f>B4-((B4-A4) * (1-C4))</f>
-        <v>4649.2</v>
+        <v>4661.2</v>
       </c>
     </row>
   </sheetData>
@@ -485,4 +585,164 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5">
+        <v>175062491</v>
+      </c>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5">
+        <v>16165959</v>
+      </c>
+      <c r="C3" s="6">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>21389540</v>
+      </c>
+      <c r="C4" s="6">
+        <v>45749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5">
+        <f>SUM(B3:B4)</f>
+        <v>37555499</v>
+      </c>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <f>B2-B5</f>
+        <v>137506992</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>30000000</v>
+      </c>
+      <c r="C8" s="7">
+        <f>1-((B7-B8)/B7)</f>
+        <v>0.21817072400216564</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5">
+        <f>B7-B8</f>
+        <v>107506992</v>
+      </c>
+      <c r="C9" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/info-2025.xlsx
+++ b/info-2025.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="9810" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16560" windowHeight="9810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="trailing stop 정리" sheetId="1" r:id="rId1"/>
     <sheet name="비중" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="memo" sheetId="4" r:id="rId3"/>
+    <sheet name="비중R" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>감시가격</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +110,10 @@
   </si>
   <si>
     <t>결론: 관망해야할 때 인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연금 합계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,10 +590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,9 +601,14 @@
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -612,17 +618,33 @@
       <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5">
         <v>175062491</v>
       </c>
       <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5">
+        <v>184000000</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -632,8 +654,17 @@
       <c r="C3" s="6">
         <v>45749</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5">
+        <v>18504397</v>
+      </c>
+      <c r="G3" s="6">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -643,23 +674,43 @@
       <c r="C4" s="6">
         <v>45749</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5">
+        <v>21966285</v>
+      </c>
+      <c r="G4" s="6">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5">
         <f>SUM(B3:B4)</f>
         <v>37555499</v>
       </c>
       <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5">
+        <f>SUM(F3:F4)</f>
+        <v>40470682</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -668,8 +719,16 @@
         <v>137506992</v>
       </c>
       <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
+        <f>F2-F5</f>
+        <v>143529318</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -681,18 +740,36 @@
         <v>0.21817072400216564</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5">
+        <v>70325145</v>
+      </c>
+      <c r="G8" s="7">
+        <f>1-((F7-F8)/F7)</f>
+        <v>0.48997059262832976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5">
         <f>B7-B8</f>
         <v>107506992</v>
       </c>
       <c r="C9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="5">
+        <f>F7-F8</f>
+        <v>73204173</v>
+      </c>
+      <c r="G9" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -705,7 +782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -713,36 +790,49 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>